--- a/biology/Mycologie/Rhizoctonia_solani/Rhizoctonia_solani.xlsx
+++ b/biology/Mycologie/Rhizoctonia_solani/Rhizoctonia_solani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhizoctonia solani
 Le rhizoctone brun, appelé aussi « rhizoctone noir », « variole des tubercules » ou « maladie des manchettes », est une maladie cryptogamique qui affecte notamment diverses plantes cultivées dont la betterave, la pomme de terre, ainsi que carotte, chicorée, laitue, endive… et qui est causée par un champignon basidiomycète, Rhizoctonia solani Kühn.
